--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N2">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O2">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P2">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q2">
-        <v>1.43916860394</v>
+        <v>1.243564628932667</v>
       </c>
       <c r="R2">
-        <v>12.95251743546</v>
+        <v>11.192081660394</v>
       </c>
       <c r="S2">
-        <v>0.0001665420983182164</v>
+        <v>0.0001594899514456916</v>
       </c>
       <c r="T2">
-        <v>0.0001665420983182164</v>
+        <v>0.0001594899514456916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.573342</v>
       </c>
       <c r="O3">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P3">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q3">
-        <v>59.20625892061801</v>
+        <v>157.8078581829082</v>
       </c>
       <c r="R3">
-        <v>532.8563302855621</v>
+        <v>1420.270723646174</v>
       </c>
       <c r="S3">
-        <v>0.006851410298429788</v>
+        <v>0.02023921158077856</v>
       </c>
       <c r="T3">
-        <v>0.006851410298429787</v>
+        <v>0.02023921158077856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N4">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O4">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P4">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q4">
-        <v>4.285868823396</v>
+        <v>1.058784800223556</v>
       </c>
       <c r="R4">
-        <v>38.57281941056399</v>
+        <v>9.529063202012001</v>
       </c>
       <c r="S4">
-        <v>0.0004959652295157716</v>
+        <v>0.0001357915241799905</v>
       </c>
       <c r="T4">
-        <v>0.0004959652295157715</v>
+        <v>0.0001357915241799906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N5">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O5">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P5">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q5">
-        <v>1.888841810565</v>
+        <v>3.424444601485667</v>
       </c>
       <c r="R5">
-        <v>16.999576295085</v>
+        <v>30.82000141337101</v>
       </c>
       <c r="S5">
-        <v>0.0002185787528031627</v>
+        <v>0.000439192696955505</v>
       </c>
       <c r="T5">
-        <v>0.0002185787528031627</v>
+        <v>0.0004391926969555051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I6">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J6">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N6">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O6">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P6">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q6">
-        <v>173.0311402891711</v>
+        <v>56.09445709190867</v>
       </c>
       <c r="R6">
-        <v>1557.28026260254</v>
+        <v>504.8501138271781</v>
       </c>
       <c r="S6">
-        <v>0.02002334479730884</v>
+        <v>0.007194239872872226</v>
       </c>
       <c r="T6">
-        <v>0.02002334479730884</v>
+        <v>0.007194239872872227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I7">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J7">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>16.573342</v>
       </c>
       <c r="O7">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P7">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q7">
         <v>7118.364356507005</v>
@@ -889,10 +889,10 @@
         <v>64065.27920856305</v>
       </c>
       <c r="S7">
-        <v>0.8237445795306559</v>
+        <v>0.9129461864531012</v>
       </c>
       <c r="T7">
-        <v>0.8237445795306558</v>
+        <v>0.9129461864531012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N8">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O8">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P8">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q8">
-        <v>515.2897079687373</v>
+        <v>47.75944664547156</v>
       </c>
       <c r="R8">
-        <v>4637.607371718635</v>
+        <v>429.835019809244</v>
       </c>
       <c r="S8">
-        <v>0.05962986475104637</v>
+        <v>0.006125256097945667</v>
       </c>
       <c r="T8">
-        <v>0.05962986475104637</v>
+        <v>0.006125256097945668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N9">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O9">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P9">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q9">
-        <v>227.0953183756017</v>
+        <v>154.4691416050697</v>
       </c>
       <c r="R9">
-        <v>2043.857865380415</v>
+        <v>1390.222274445627</v>
       </c>
       <c r="S9">
-        <v>0.02627970811548699</v>
+        <v>0.01981101369503825</v>
       </c>
       <c r="T9">
-        <v>0.02627970811548699</v>
+        <v>0.01981101369503826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H10">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I10">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J10">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N10">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O10">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P10">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q10">
-        <v>0.1309879594622222</v>
+        <v>0.00500836903</v>
       </c>
       <c r="R10">
-        <v>1.17889163516</v>
+        <v>0.04507532127</v>
       </c>
       <c r="S10">
-        <v>1.515806387350112E-05</v>
+        <v>6.423345557057139E-07</v>
       </c>
       <c r="T10">
-        <v>1.515806387350111E-05</v>
+        <v>6.42334555705714E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H11">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I11">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J11">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>16.573342</v>
       </c>
       <c r="O11">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P11">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q11">
-        <v>5.388741126072444</v>
+        <v>0.6355600434633334</v>
       </c>
       <c r="R11">
-        <v>48.498670134652</v>
+        <v>5.72004039117</v>
       </c>
       <c r="S11">
-        <v>0.0006235907675951416</v>
+        <v>8.151200035320171E-05</v>
       </c>
       <c r="T11">
-        <v>0.0006235907675951415</v>
+        <v>8.151200035320171E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H12">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I12">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J12">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N12">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O12">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P12">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q12">
-        <v>0.3900843932826666</v>
+        <v>0.004264181273333333</v>
       </c>
       <c r="R12">
-        <v>3.510759539543999</v>
+        <v>0.03837763146000001</v>
       </c>
       <c r="S12">
-        <v>4.514097458812553E-05</v>
+        <v>5.46890807615906E-07</v>
       </c>
       <c r="T12">
-        <v>4.514097458812552E-05</v>
+        <v>5.468908076159063E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H13">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I13">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J13">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N13">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O13">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P13">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q13">
-        <v>0.1719156003233333</v>
+        <v>0.013791709645</v>
       </c>
       <c r="R13">
-        <v>1.54724040291</v>
+        <v>0.124125386805</v>
       </c>
       <c r="S13">
-        <v>1.989425334397958E-05</v>
+        <v>1.768817679803296E-06</v>
       </c>
       <c r="T13">
-        <v>1.989425334397958E-05</v>
+        <v>1.768817679803297E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H14">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I14">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J14">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N14">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O14">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P14">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q14">
-        <v>11.15673814428889</v>
+        <v>1.911490378614667</v>
       </c>
       <c r="R14">
-        <v>100.4106432986</v>
+        <v>17.203413407532</v>
       </c>
       <c r="S14">
-        <v>0.00129106942428423</v>
+        <v>0.0002451529261778857</v>
       </c>
       <c r="T14">
-        <v>0.00129106942428423</v>
+        <v>0.0002451529261778857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H15">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I15">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J15">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.573342</v>
       </c>
       <c r="O15">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P15">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q15">
-        <v>458.9793895391578</v>
+        <v>242.5673709015969</v>
       </c>
       <c r="R15">
-        <v>4130.81450585242</v>
+        <v>2183.106338114372</v>
       </c>
       <c r="S15">
-        <v>0.05311357571961884</v>
+        <v>0.03110980909822861</v>
       </c>
       <c r="T15">
-        <v>0.05311357571961883</v>
+        <v>0.03110980909822861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H16">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I16">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J16">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N16">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O16">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P16">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q16">
-        <v>33.22495783502666</v>
+        <v>1.627464235926223</v>
       </c>
       <c r="R16">
-        <v>299.0246205152399</v>
+        <v>14.647178123336</v>
       </c>
       <c r="S16">
-        <v>0.003844826922454383</v>
+        <v>0.0002087259366569898</v>
       </c>
       <c r="T16">
-        <v>0.003844826922454383</v>
+        <v>0.0002087259366569898</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H17">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I17">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J17">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N17">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O17">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P17">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q17">
-        <v>14.64269955498333</v>
+        <v>5.263733589348669</v>
       </c>
       <c r="R17">
-        <v>131.78429599485</v>
+        <v>47.37360230413801</v>
       </c>
       <c r="S17">
-        <v>0.001694468530131863</v>
+        <v>0.0006750856329106245</v>
       </c>
       <c r="T17">
-        <v>0.001694468530131863</v>
+        <v>0.0006750856329106244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H18">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I18">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J18">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N18">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O18">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P18">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q18">
-        <v>0.05979445073777778</v>
+        <v>0.030203366792</v>
       </c>
       <c r="R18">
-        <v>0.5381500566399999</v>
+        <v>0.2718303011279999</v>
       </c>
       <c r="S18">
-        <v>6.9194764716184E-06</v>
+        <v>3.873649500056116E-06</v>
       </c>
       <c r="T18">
-        <v>6.9194764716184E-06</v>
+        <v>3.873649500056116E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H19">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I19">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J19">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>16.573342</v>
       </c>
       <c r="O19">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P19">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q19">
-        <v>2.459896444867556</v>
+        <v>3.832795266498667</v>
       </c>
       <c r="R19">
-        <v>22.139068003808</v>
+        <v>34.495157398488</v>
       </c>
       <c r="S19">
-        <v>0.0002846617932410392</v>
+        <v>0.0004915645851714294</v>
       </c>
       <c r="T19">
-        <v>0.0002846617932410391</v>
+        <v>0.0004915645851714294</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H20">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I20">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J20">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N20">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O20">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P20">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q20">
-        <v>0.1780689013973333</v>
+        <v>0.02571548348266666</v>
       </c>
       <c r="R20">
-        <v>1.602620112576</v>
+        <v>0.231439351344</v>
       </c>
       <c r="S20">
-        <v>2.060631978959418E-05</v>
+        <v>3.29806840483484E-06</v>
       </c>
       <c r="T20">
-        <v>2.060631978959418E-05</v>
+        <v>3.298068404834841E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H21">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I21">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J21">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N21">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O21">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P21">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q21">
-        <v>0.07847743362666668</v>
+        <v>0.083171999228</v>
       </c>
       <c r="R21">
-        <v>0.70629690264</v>
+        <v>0.748547993052</v>
       </c>
       <c r="S21">
-        <v>9.081490821181439E-06</v>
+        <v>1.066699535343013E-05</v>
       </c>
       <c r="T21">
-        <v>9.081490821181439E-06</v>
+        <v>1.066699535343013E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H22">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I22">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J22">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N22">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O22">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P22">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q22">
-        <v>0.3017021225733333</v>
+        <v>0.006935416051333332</v>
       </c>
       <c r="R22">
-        <v>2.71531910316</v>
+        <v>0.062418744462</v>
       </c>
       <c r="S22">
-        <v>3.491328564482596E-05</v>
+        <v>8.894826561866736E-07</v>
       </c>
       <c r="T22">
-        <v>3.491328564482596E-05</v>
+        <v>8.894826561866737E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H23">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I23">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J23">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>16.573342</v>
       </c>
       <c r="O23">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P23">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q23">
-        <v>12.41178687269466</v>
+        <v>0.8801015461557778</v>
       </c>
       <c r="R23">
-        <v>111.706081854252</v>
+        <v>7.920913915402</v>
       </c>
       <c r="S23">
-        <v>0.001436304977747583</v>
+        <v>0.0001128749962791547</v>
       </c>
       <c r="T23">
-        <v>0.001436304977747583</v>
+        <v>0.0001128749962791547</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H24">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I24">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J24">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N24">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O24">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P24">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q24">
-        <v>0.8984741034159996</v>
+        <v>0.005904890608444444</v>
       </c>
       <c r="R24">
-        <v>8.086266930743998</v>
+        <v>0.053144015476</v>
       </c>
       <c r="S24">
-        <v>0.0001039723643621932</v>
+        <v>7.573154579358152E-07</v>
       </c>
       <c r="T24">
-        <v>0.0001039723643621932</v>
+        <v>7.573154579358154E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H25">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I25">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J25">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N25">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O25">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P25">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q25">
-        <v>0.3959699939899999</v>
+        <v>0.01909828207033333</v>
       </c>
       <c r="R25">
-        <v>3.56372994591</v>
+        <v>0.171884538633</v>
       </c>
       <c r="S25">
-        <v>4.582206246690427E-05</v>
+        <v>2.449397489463744E-06</v>
       </c>
       <c r="T25">
-        <v>4.582206246690428E-05</v>
+        <v>2.449397489463744E-06</v>
       </c>
     </row>
   </sheetData>
